--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -85,10 +85,10 @@
     <t>better</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>safe</t>
   </si>
   <si>
     <t>heroes</t>
@@ -974,25 +974,25 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6623376623376623</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L15">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="M15">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="N15">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O15">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1000,25 +1000,25 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6595744680851063</v>
+        <v>0.6401673640167364</v>
       </c>
       <c r="L16">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="M16">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="N16">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1130,25 +1130,25 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5501519756838906</v>
+        <v>0.5323529411764706</v>
       </c>
       <c r="L21">
         <v>181</v>
       </c>
       <c r="M21">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="N21">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="10:17">
